--- a/自选基金助手-基金配置-优选.xlsx
+++ b/自选基金助手-基金配置-优选.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="588" windowWidth="22752" windowHeight="8652"/>
+    <workbookView xWindow="516" yWindow="552" windowWidth="16032" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -28,98 +28,82 @@
     <t>持有份额</t>
   </si>
   <si>
+    <t>005958</t>
+  </si>
+  <si>
     <t>华夏聚丰稳健混合发起式(FOF)C</t>
   </si>
   <si>
+    <t>165520</t>
+  </si>
+  <si>
     <t>信诚中证800有色指数(LOF)</t>
   </si>
   <si>
+    <t>160322</t>
+  </si>
+  <si>
     <t>华夏港股通精选股票LOF</t>
   </si>
   <si>
+    <t>001878</t>
+  </si>
+  <si>
     <t>嘉实沪港深精选股票</t>
   </si>
   <si>
+    <t>001188</t>
+  </si>
+  <si>
     <t>鹏华改革红利股票</t>
   </si>
   <si>
+    <t>519033</t>
+  </si>
+  <si>
     <t>海富通国策导向混合</t>
   </si>
   <si>
+    <t>210008</t>
+  </si>
+  <si>
     <t>金鹰策略配置混合</t>
   </si>
   <si>
+    <t>000689</t>
+  </si>
+  <si>
     <t>前海开源新经济混合</t>
   </si>
   <si>
+    <t>004292</t>
+  </si>
+  <si>
     <t>鹏华沪深港互联网股票</t>
   </si>
   <si>
+    <t>001740</t>
+  </si>
+  <si>
     <t>光大中国制造2025混合</t>
   </si>
   <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>工银新能源汽车混合C</t>
+  </si>
+  <si>
     <t>720001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财通价值动量混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005958</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>165520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001878</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>519033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004292</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>003835</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鹏华沪深港新兴成长混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新能源汽车混合C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,10 +551,10 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.796875" customWidth="1"/>
@@ -578,7 +562,7 @@
     <col min="4" max="4" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,144 +576,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -740,7 +724,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 C12:D12 B2:D2 B3:D3 B4:D4 B5:D5 B6:D6 B7:D7 B8:D8 B9:D9 B10:D10 B11:D11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/自选基金助手-基金配置-优选.xlsx
+++ b/自选基金助手-基金配置-优选.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="552" windowWidth="16032" windowHeight="6060"/>
+    <workbookView xWindow="516" yWindow="552" windowWidth="11232" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>基金代码</t>
   </si>
@@ -28,12 +28,6 @@
     <t>持有份额</t>
   </si>
   <si>
-    <t>005958</t>
-  </si>
-  <si>
-    <t>华夏聚丰稳健混合发起式(FOF)C</t>
-  </si>
-  <si>
     <t>165520</t>
   </si>
   <si>
@@ -58,6 +52,18 @@
     <t>鹏华改革红利股票</t>
   </si>
   <si>
+    <t>004292</t>
+  </si>
+  <si>
+    <t>鹏华沪深港互联网股票</t>
+  </si>
+  <si>
+    <t>164402</t>
+  </si>
+  <si>
+    <t>前海开源中航军工指数</t>
+  </si>
+  <si>
     <t>519033</t>
   </si>
   <si>
@@ -76,12 +82,6 @@
     <t>前海开源新经济混合</t>
   </si>
   <si>
-    <t>004292</t>
-  </si>
-  <si>
-    <t>鹏华沪深港互联网股票</t>
-  </si>
-  <si>
     <t>001740</t>
   </si>
   <si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>鹏华沪深港新兴成长混合</t>
+  </si>
+  <si>
+    <t>162202</t>
+  </si>
+  <si>
+    <t>泰达宏利周期混合</t>
   </si>
 </sst>
 </file>
@@ -548,21 +554,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.796875" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" customWidth="1"/>
     <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -587,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -631,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -675,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -686,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -708,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -716,6 +722,17 @@
         <v>29</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -724,7 +741,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>